--- a/Team-Data/2007-08/12-30-2007-08.xlsx
+++ b/Team-Data/2007-08/12-30-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>14</v>
@@ -783,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>11</v>
@@ -795,13 +862,13 @@
         <v>20</v>
       </c>
       <c r="AU2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV2" t="n">
         <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>5</v>
@@ -810,7 +877,7 @@
         <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA2" t="n">
         <v>8</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.897</v>
+        <v>0.893</v>
       </c>
       <c r="H3" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J3" t="n">
-        <v>75.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.473</v>
@@ -875,31 +942,31 @@
         <v>7.7</v>
       </c>
       <c r="M3" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.397</v>
       </c>
       <c r="O3" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="P3" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
         <v>9.5</v>
       </c>
       <c r="S3" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T3" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.1</v>
@@ -914,19 +981,19 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -971,19 +1038,19 @@
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX3" t="n">
         <v>27</v>
@@ -992,13 +1059,13 @@
         <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1132,7 +1199,7 @@
         <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1162,10 +1229,10 @@
         <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1174,13 +1241,13 @@
         <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
         <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.393</v>
+        <v>0.37</v>
       </c>
       <c r="H5" t="n">
         <v>48.2</v>
@@ -1230,40 +1297,40 @@
         <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.416</v>
+        <v>0.413</v>
       </c>
       <c r="L5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.332</v>
+        <v>0.325</v>
       </c>
       <c r="O5" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P5" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R5" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="S5" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V5" t="n">
         <v>15.2</v>
@@ -1272,34 +1339,34 @@
         <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.2</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4</v>
+        <v>-4.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>18</v>
@@ -1308,19 +1375,19 @@
         <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
         <v>24</v>
@@ -1329,13 +1396,13 @@
         <v>25</v>
       </c>
       <c r="AQ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT5" t="n">
         <v>9</v>
@@ -1347,16 +1414,16 @@
         <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
         <v>19</v>
@@ -1365,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
         <v>19</v>
@@ -1502,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1532,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="AX6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
         <v>18</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -1657,13 +1724,13 @@
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
@@ -1672,16 +1739,16 @@
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL7" t="n">
         <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1690,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1702,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="AT7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU7" t="n">
         <v>19</v>
@@ -1726,10 +1793,10 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -1758,97 +1825,97 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.621</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
         <v>84.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.456</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
         <v>6.4</v>
       </c>
       <c r="M8" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N8" t="n">
-        <v>0.336</v>
+        <v>0.34</v>
       </c>
       <c r="O8" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R8" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S8" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T8" t="n">
-        <v>44.9</v>
+        <v>44.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="W8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>6.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.9</v>
+        <v>107.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1857,16 +1924,16 @@
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
@@ -1890,19 +1957,19 @@
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,13 +2100,13 @@
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
@@ -2048,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -2057,13 +2124,13 @@
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>13</v>
       </c>
       <c r="AS9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -2122,88 +2189,88 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
         <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.581</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="J10" t="n">
-        <v>89.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.448</v>
       </c>
       <c r="L10" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M10" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O10" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P10" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q10" t="n">
         <v>0.74</v>
       </c>
       <c r="R10" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
         <v>42.8</v>
       </c>
       <c r="U10" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2242,13 +2309,13 @@
         <v>21</v>
       </c>
       <c r="AR10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2260,22 +2327,22 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2394,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2424,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS11" t="n">
         <v>8</v>
@@ -2439,13 +2506,13 @@
         <v>10</v>
       </c>
       <c r="AW11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2655,7 @@
         <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>4</v>
@@ -2597,10 +2664,10 @@
         <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
         <v>17</v>
@@ -2609,13 +2676,13 @@
         <v>12</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV12" t="n">
         <v>18</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2770,13 +2837,13 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM13" t="n">
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
@@ -2803,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX13" t="n">
         <v>10</v>
@@ -2818,7 +2885,7 @@
         <v>15</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -2850,64 +2917,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
         <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.633</v>
+        <v>0.655</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="J14" t="n">
         <v>82.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.469</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O14" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="P14" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S14" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T14" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
         <v>15.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>5</v>
@@ -2916,28 +2983,28 @@
         <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.5</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2970,16 +3037,16 @@
         <v>14</v>
       </c>
       <c r="AR14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS14" t="n">
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>22</v>
@@ -2991,19 +3058,19 @@
         <v>14</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -3032,100 +3099,100 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>0.267</v>
+        <v>0.276</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.46</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M15" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.373</v>
+        <v>0.376</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.764</v>
       </c>
       <c r="R15" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="T15" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="U15" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V15" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W15" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
         <v>19.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.6</v>
+        <v>101</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5</v>
+        <v>-4.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>28</v>
       </c>
       <c r="AH15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI15" t="n">
         <v>12</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>18</v>
@@ -3134,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3143,28 +3210,28 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AR15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW15" t="n">
         <v>30</v>
@@ -3173,19 +3240,19 @@
         <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA15" t="n">
         <v>10</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3380,7 @@
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3322,13 +3389,13 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
@@ -3355,16 +3422,16 @@
         <v>8</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
         <v>9</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-5</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
@@ -3522,10 +3589,10 @@
         <v>27</v>
       </c>
       <c r="AT17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>17</v>
@@ -3540,7 +3607,7 @@
         <v>22</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
         <v>18</v>
@@ -3549,7 +3616,7 @@
         <v>18</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3683,7 +3750,7 @@
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN18" t="n">
         <v>17</v>
@@ -3704,13 +3771,13 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>17</v>
@@ -3719,7 +3786,7 @@
         <v>25</v>
       </c>
       <c r="AY18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3728,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3880,13 +3947,13 @@
         <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU19" t="n">
         <v>7</v>
@@ -3898,7 +3965,7 @@
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>5</v>
@@ -3913,7 +3980,7 @@
         <v>29</v>
       </c>
       <c r="BC19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>4</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4035,7 +4102,7 @@
         <v>4</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
         <v>9</v>
@@ -4071,7 +4138,7 @@
         <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>0.276</v>
+        <v>0.286</v>
       </c>
       <c r="H21" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J21" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="L21" t="n">
         <v>5.5</v>
       </c>
       <c r="M21" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="O21" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="R21" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="U21" t="n">
         <v>16.8</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="O21" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.704</v>
-      </c>
-      <c r="R21" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>29</v>
-      </c>
-      <c r="T21" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="U21" t="n">
-        <v>16.7</v>
       </c>
       <c r="V21" t="n">
         <v>15.7</v>
@@ -4187,22 +4254,22 @@
         <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.8</v>
+        <v>94.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
@@ -4220,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
         <v>28</v>
@@ -4229,16 +4296,16 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ21" t="n">
         <v>28</v>
@@ -4268,13 +4335,13 @@
         <v>28</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -4387,10 +4454,10 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG22" t="n">
         <v>6</v>
@@ -4414,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
@@ -4426,7 +4493,7 @@
         <v>27</v>
       </c>
       <c r="AR22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4441,16 +4508,16 @@
         <v>16</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
         <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>0.433</v>
+        <v>0.448</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="J23" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L23" t="n">
         <v>4.2</v>
@@ -4518,34 +4585,34 @@
         <v>12.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O23" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="P23" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="R23" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S23" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T23" t="n">
         <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
         <v>5.4</v>
@@ -4557,37 +4624,37 @@
         <v>20.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>92.90000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
         <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4596,13 +4663,13 @@
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
         <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ23" t="n">
         <v>25</v>
@@ -4617,13 +4684,13 @@
         <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX23" t="n">
         <v>9</v>
@@ -4632,16 +4699,16 @@
         <v>10</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>22</v>
       </c>
       <c r="BB23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -4670,70 +4737,70 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="n">
         <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="J24" t="n">
-        <v>85.5</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.492</v>
+        <v>0.493</v>
       </c>
       <c r="L24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="O24" t="n">
         <v>16.9</v>
       </c>
       <c r="P24" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.773</v>
+        <v>0.776</v>
       </c>
       <c r="R24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="S24" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U24" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="V24" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X24" t="n">
         <v>6.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z24" t="n">
         <v>19</v>
@@ -4742,13 +4809,13 @@
         <v>19.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.4</v>
+        <v>109.1</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4787,16 +4854,16 @@
         <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4805,13 +4872,13 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>0.586</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4876,70 +4943,70 @@
         <v>0.463</v>
       </c>
       <c r="L25" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M25" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="O25" t="n">
         <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S25" t="n">
         <v>29.5</v>
       </c>
       <c r="T25" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U25" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V25" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W25" t="n">
         <v>5.7</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y25" t="n">
         <v>3.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB25" t="n">
         <v>95.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="AD25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE25" t="n">
         <v>10</v>
       </c>
-      <c r="AE25" t="n">
-        <v>9</v>
-      </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -4948,13 +5015,13 @@
         <v>18</v>
       </c>
       <c r="AJ25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>20</v>
@@ -4972,16 +5039,16 @@
         <v>18</v>
       </c>
       <c r="AR25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS25" t="n">
         <v>24</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>23</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV25" t="n">
         <v>9</v>
@@ -4990,7 +5057,7 @@
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
@@ -5005,7 +5072,7 @@
         <v>19</v>
       </c>
       <c r="BC25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -5034,67 +5101,67 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.379</v>
+        <v>0.393</v>
       </c>
       <c r="H26" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J26" t="n">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="K26" t="n">
         <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M26" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.351</v>
+        <v>0.358</v>
       </c>
       <c r="O26" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P26" t="n">
         <v>27.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.789</v>
+        <v>0.787</v>
       </c>
       <c r="R26" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S26" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T26" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="U26" t="n">
         <v>17.7</v>
       </c>
       <c r="V26" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X26" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y26" t="n">
         <v>5.8</v>
@@ -5103,25 +5170,25 @@
         <v>22.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.7</v>
+        <v>-3.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
         <v>8</v>
@@ -5142,19 +5209,19 @@
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ26" t="n">
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
@@ -5166,10 +5233,10 @@
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX26" t="n">
         <v>28</v>
@@ -5178,10 +5245,10 @@
         <v>25</v>
       </c>
       <c r="AZ26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" t="n">
         <v>8</v>
       </c>
       <c r="G27" t="n">
-        <v>0.724</v>
+        <v>0.714</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J27" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L27" t="n">
         <v>8.199999999999999</v>
@@ -5246,58 +5313,58 @@
         <v>21.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.39</v>
+        <v>0.387</v>
       </c>
       <c r="O27" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P27" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R27" t="n">
         <v>10.1</v>
       </c>
       <c r="S27" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T27" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U27" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V27" t="n">
         <v>12.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X27" t="n">
         <v>3.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
@@ -5309,13 +5376,13 @@
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>20</v>
       </c>
       <c r="AK27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL27" t="n">
         <v>4</v>
@@ -5333,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
@@ -5342,22 +5409,22 @@
         <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
         <v>3</v>
       </c>
       <c r="AW27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -5476,25 +5543,25 @@
         <v>-6.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>25</v>
       </c>
       <c r="AF28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
         <v>26</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK28" t="n">
         <v>23</v>
@@ -5506,25 +5573,25 @@
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
         <v>16</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>17</v>
@@ -5542,7 +5609,7 @@
         <v>20</v>
       </c>
       <c r="AZ28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5740,7 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>8</v>
@@ -5706,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -5858,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5888,7 +5955,7 @@
         <v>28</v>
       </c>
       <c r="AT30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5897,7 +5964,7 @@
         <v>20</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>1.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6034,7 +6101,7 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
         <v>8</v>
@@ -6055,10 +6122,10 @@
         <v>16</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
         <v>5</v>
@@ -6067,7 +6134,7 @@
         <v>9</v>
       </c>
       <c r="AS31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT31" t="n">
         <v>6</v>
@@ -6097,7 +6164,7 @@
         <v>11</v>
       </c>
       <c r="BC31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-30-2007-08</t>
+          <t>2007-12-30</t>
         </is>
       </c>
     </row>
